--- a/files/schluesseltabelle.xlsx
+++ b/files/schluesseltabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blindzellner\Dropbox\Fincon\Python-Projekte\reds2za\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6431-0EA7-42AB-8569-116EFD067343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C289B1-2584-40EC-BF93-52FC8F322193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-250" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="605">
   <si>
     <t>Satzart</t>
   </si>
@@ -1836,6 +1836,18 @@
   </si>
   <si>
     <t>oknag</t>
+  </si>
+  <si>
+    <t>REDS_Satzart_Schluessel_3</t>
+  </si>
+  <si>
+    <t>REDS_Feld_3</t>
+  </si>
+  <si>
+    <t>zgep</t>
+  </si>
+  <si>
+    <t>bc</t>
   </si>
 </sst>
 </file>
@@ -1868,12 +1880,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1901,7 +1919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1916,6 +1934,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2303,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R300"/>
+  <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q96" sqref="Q96"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2324,9 +2352,11 @@
     <col min="15" max="15" width="18.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.36328125" customWidth="1"/>
     <col min="18" max="18" width="23.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="23.54296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2381,8 +2411,14 @@
       <c r="R1" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2412,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2439,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2646,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2715,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2750,8 +2786,9 @@
         <f>IF(ISBLANK(Tabelle1[[#This Row],[REDS_Feld_Type]]),0,Tabelle1[[#This Row],[REDS_Feld_Laenge]]-Tabelle1[[#This Row],[Feldlnge]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2798,8 +2835,14 @@
       <c r="R13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="10">
+        <v>11</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2849,8 +2892,14 @@
       <c r="R14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="10">
+        <v>11</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2897,8 +2946,14 @@
       <c r="R15" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2942,8 +2997,14 @@
       <c r="R16" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="10">
+        <v>11</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2987,8 +3048,14 @@
       <c r="R17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="10">
+        <v>11</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3032,8 +3099,14 @@
       <c r="R18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="10">
+        <v>11</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3077,8 +3150,14 @@
       <c r="R19" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="10">
+        <v>11</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3123,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3171,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3216,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3258,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3300,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -3345,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3429,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3471,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3489,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3525,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4212,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4257,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4299,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -4341,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4386,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4428,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -4473,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -4515,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4560,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -4607,8 +4686,14 @@
       <c r="R57" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S57" s="10">
+        <v>19</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -4658,8 +4743,14 @@
       <c r="R58" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S58" s="10">
+        <v>19</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4706,8 +4797,14 @@
       <c r="R59" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4751,8 +4848,14 @@
       <c r="R60" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S60" s="10">
+        <v>19</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4796,8 +4899,14 @@
       <c r="R61" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S61" s="10">
+        <v>19</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -4841,8 +4950,14 @@
       <c r="R62" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S62" s="10">
+        <v>19</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -4886,8 +5001,14 @@
       <c r="R63" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S63" s="10">
+        <v>19</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>74</v>
       </c>
